--- a/design/content/VetsXMLSiteMap_2018-09-28.xlsx
+++ b/design/content/VetsXMLSiteMap_2018-09-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnort\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A3F475D6-906B-4E69-A92F-A5E7D5F50C35}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29459A75-5010-41B9-A356-CDE661E52496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{77A04D6B-F00A-43EB-AEFA-05D3661E9022}"/>
   </bookViews>
@@ -960,7 +960,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -979,6 +979,19 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1297,8 +1310,8 @@
   <dimension ref="A1:F272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E91" sqref="E91"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1347,19 +1360,21 @@
         <v>264</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A4" s="6" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A4" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="2" t="s">
+      <c r="C4" s="10"/>
+      <c r="E4" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
         <v>264</v>
       </c>
     </row>
@@ -1945,22 +1960,24 @@
         <v>264</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A78" s="2" t="s">
+    <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D78" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A79" s="2" t="s">
+      <c r="C78" s="10"/>
+      <c r="E78" s="5" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="E79" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F79" s="1" t="s">
+      <c r="C79" s="10"/>
+      <c r="E79" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F79" s="5" t="s">
         <v>271</v>
       </c>
     </row>
@@ -2055,14 +2072,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A91" s="3" t="s">
+    <row r="91" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A91" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="E91" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F91" s="1" t="s">
+      <c r="C91" s="10"/>
+      <c r="E91" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F91" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2114,14 +2132,15 @@
         <v>264</v>
       </c>
     </row>
-    <row r="98" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
-      <c r="A98" s="3" t="s">
+    <row r="98" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A98" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="E98" s="1" t="s">
-        <v>264</v>
-      </c>
-      <c r="F98" s="1" t="s">
+      <c r="C98" s="10"/>
+      <c r="E98" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F98" s="5" t="s">
         <v>272</v>
       </c>
     </row>
@@ -2688,11 +2707,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A168" s="1" t="s">
+    <row r="168" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="5" t="s">
         <v>226</v>
       </c>
-      <c r="E168" s="1" t="s">
+      <c r="C168" s="10"/>
+      <c r="E168" s="5" t="s">
         <v>264</v>
       </c>
     </row>
@@ -3115,11 +3135,12 @@
         <v>264</v>
       </c>
     </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A221" s="1" t="s">
+    <row r="221" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A221" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="E221" s="1" t="s">
+      <c r="C221" s="10"/>
+      <c r="E221" s="5" t="s">
         <v>264</v>
       </c>
     </row>

--- a/design/content/VetsXMLSiteMap_2018-09-28.xlsx
+++ b/design/content/VetsXMLSiteMap_2018-09-28.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mnort\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29459A75-5010-41B9-A356-CDE661E52496}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60285E63-BBBC-4206-9BDE-08DD35FADEF1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5640" xr2:uid="{77A04D6B-F00A-43EB-AEFA-05D3661E9022}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="289">
   <si>
     <t>https://www.vets.gov/playbook/human-centered-design/</t>
   </si>
@@ -738,9 +738,6 @@
     <t>https://www.vets.gov/housing-assistance/</t>
   </si>
   <si>
-    <t>https://www.vets.gov/id-card-beta/</t>
-  </si>
-  <si>
     <t>https://www.vets.gov/life-insurance/</t>
   </si>
   <si>
@@ -828,25 +825,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>new hub page</t>
-  </si>
-  <si>
     <t>https://www.vets.gov/employment/job-seekers/skills-translator</t>
   </si>
   <si>
-    <t>this was not in xml</t>
-  </si>
-  <si>
     <t>https://www.vets.gov/employment/job-seekers/create-resume</t>
   </si>
   <si>
-    <t>already redirects to vets.gov/track-claims/</t>
-  </si>
-  <si>
     <t>already redirects to vets.gov/apply/</t>
-  </si>
-  <si>
-    <t>new home page</t>
   </si>
   <si>
     <t xml:space="preserve">https://www.vets.gov/auth/login/callback/ </t>
@@ -875,6 +860,39 @@
   </si>
   <si>
     <t>https://www.vets.gov/scorecard/</t>
+  </si>
+  <si>
+    <t>need new claim URL</t>
+  </si>
+  <si>
+    <t>already redirects to vets.gov/track-claims/   update redirect</t>
+  </si>
+  <si>
+    <t>audit links on veterans.gov</t>
+  </si>
+  <si>
+    <t>can redirect if we publish new handbook in time</t>
+  </si>
+  <si>
+    <t>va.gov/scorecard, needs to be scoped for level of effort, andy to create ticket</t>
+  </si>
+  <si>
+    <t>ask dbao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://www.vets.gov/id-card-beta/ </t>
+  </si>
+  <si>
+    <t>no content on page, no current redirect</t>
+  </si>
+  <si>
+    <t>redirect to family page?</t>
+  </si>
+  <si>
+    <t>update redirect</t>
+  </si>
+  <si>
+    <t>confirmed w/Melissa and Andy</t>
   </si>
 </sst>
 </file>
@@ -987,11 +1005,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1307,11 +1323,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6862AED-6C5C-41DE-9996-7CB79D28C2B5}">
-  <dimension ref="A1:F272"/>
+  <dimension ref="A1:G272"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E5" sqref="E5"/>
+      <selection pane="bottomLeft" activeCell="A279" sqref="A279"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
@@ -1326,19 +1342,19 @@
   <sheetData>
     <row r="1" spans="1:6" s="4" customFormat="1" ht="41.4" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="C1" s="9" t="s">
-        <v>281</v>
+        <v>276</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>279</v>
+        <v>274</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
@@ -1346,10 +1362,7 @@
         <v>204</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -1357,25 +1370,30 @@
         <v>205</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="4" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A4" s="13" t="s">
-        <v>274</v>
+        <v>269</v>
       </c>
       <c r="C4" s="10"/>
       <c r="E4" s="5" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="15" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="16"/>
-      <c r="D5" s="15" t="s">
-        <v>264</v>
+      <c r="C5" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -1383,10 +1401,7 @@
         <v>206</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
@@ -1394,7 +1409,7 @@
         <v>20</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1402,7 +1417,7 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
@@ -1410,7 +1425,7 @@
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
@@ -1418,7 +1433,7 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -1426,7 +1441,7 @@
         <v>16</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
@@ -1434,7 +1449,7 @@
         <v>207</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
@@ -1442,7 +1457,7 @@
         <v>21</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
@@ -1450,7 +1465,7 @@
         <v>22</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -1458,7 +1473,7 @@
         <v>17</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -1466,138 +1481,135 @@
         <v>23</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
         <v>208</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
         <v>209</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>149</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>155</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>154</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>156</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
         <v>210</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>162</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>170</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>171</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>163</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
@@ -1605,7 +1617,7 @@
         <v>167</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1613,7 +1625,7 @@
         <v>168</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
@@ -1621,7 +1633,7 @@
         <v>169</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
@@ -1629,7 +1641,7 @@
         <v>164</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1637,7 +1649,7 @@
         <v>165</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1645,7 +1657,7 @@
         <v>166</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
@@ -1653,7 +1665,7 @@
         <v>150</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
@@ -1661,7 +1673,7 @@
         <v>157</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -1669,7 +1681,7 @@
         <v>158</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -1677,7 +1689,7 @@
         <v>151</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -1685,7 +1697,7 @@
         <v>172</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -1693,7 +1705,7 @@
         <v>184</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
@@ -1701,7 +1713,7 @@
         <v>194</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
@@ -1709,7 +1721,7 @@
         <v>195</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
@@ -1717,7 +1729,7 @@
         <v>196</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -1725,7 +1737,7 @@
         <v>197</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
@@ -1733,7 +1745,7 @@
         <v>198</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1741,7 +1753,7 @@
         <v>199</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -1749,7 +1761,7 @@
         <v>200</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
@@ -1757,7 +1769,7 @@
         <v>201</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -1765,7 +1777,7 @@
         <v>202</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
@@ -1773,7 +1785,7 @@
         <v>203</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -1781,7 +1793,7 @@
         <v>185</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
@@ -1789,7 +1801,7 @@
         <v>186</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -1797,7 +1809,7 @@
         <v>187</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
@@ -1805,7 +1817,7 @@
         <v>189</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
@@ -1813,7 +1825,7 @@
         <v>188</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -1821,7 +1833,7 @@
         <v>190</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
@@ -1829,7 +1841,7 @@
         <v>191</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
@@ -1837,7 +1849,7 @@
         <v>192</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
@@ -1845,7 +1857,7 @@
         <v>193</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -1853,7 +1865,7 @@
         <v>173</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.3">
@@ -1861,7 +1873,7 @@
         <v>174</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.3">
@@ -1869,7 +1881,7 @@
         <v>175</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.3">
@@ -1877,7 +1889,7 @@
         <v>176</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.3">
@@ -1885,7 +1897,7 @@
         <v>177</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.3">
@@ -1893,7 +1905,7 @@
         <v>178</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.3">
@@ -1901,7 +1913,7 @@
         <v>179</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.3">
@@ -1909,7 +1921,7 @@
         <v>181</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.3">
@@ -1917,7 +1929,7 @@
         <v>180</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.3">
@@ -1925,7 +1937,7 @@
         <v>182</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.3">
@@ -1933,7 +1945,7 @@
         <v>183</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.3">
@@ -1941,7 +1953,7 @@
         <v>152</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.3">
@@ -1949,7 +1961,7 @@
         <v>159</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.3">
@@ -1957,28 +1969,29 @@
         <v>160</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="78" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A78" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="10"/>
-      <c r="E78" s="5" t="s">
-        <v>264</v>
+      <c r="C78" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A79" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C79" s="10"/>
-      <c r="E79" s="5" t="s">
-        <v>264</v>
+      <c r="C79" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.3">
@@ -1986,274 +1999,275 @@
         <v>12</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="1" t="s">
         <v>211</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="1" t="s">
         <v>212</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="1" t="s">
         <v>213</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F83" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A84" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>44</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>45</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>46</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>47</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="1" t="s">
         <v>214</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="1" t="s">
         <v>215</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A91" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="E91" s="5" t="s">
-        <v>264</v>
+      <c r="C91" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="G91" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>57</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>59</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A98" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="E98" s="5" t="s">
-        <v>264</v>
+      <c r="C98" s="5" t="s">
+        <v>263</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+        <v>268</v>
+      </c>
+      <c r="G98" s="5" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="1" t="s">
         <v>216</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="1" t="s">
         <v>217</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>67</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="1" t="s">
         <v>218</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>72</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>68</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>73</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>74</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="1" t="s">
         <v>219</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.3">
@@ -2261,7 +2275,7 @@
         <v>69</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.3">
@@ -2269,7 +2283,7 @@
         <v>71</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.3">
@@ -2277,7 +2291,7 @@
         <v>42</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.3">
@@ -2285,7 +2299,7 @@
         <v>48</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.3">
@@ -2293,7 +2307,7 @@
         <v>43</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.3">
@@ -2301,7 +2315,7 @@
         <v>49</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.3">
@@ -2309,7 +2323,7 @@
         <v>50</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.3">
@@ -2317,7 +2331,7 @@
         <v>51</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.3">
@@ -2325,7 +2339,7 @@
         <v>220</v>
       </c>
       <c r="B121" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="122" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2333,7 +2347,7 @@
         <v>221</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.3">
@@ -2341,7 +2355,7 @@
         <v>52</v>
       </c>
       <c r="B123" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.3">
@@ -2349,7 +2363,7 @@
         <v>53</v>
       </c>
       <c r="B124" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.3">
@@ -2357,7 +2371,7 @@
         <v>54</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.3">
@@ -2365,7 +2379,7 @@
         <v>55</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="127" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2373,7 +2387,7 @@
         <v>222</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="128" spans="1:3" ht="14.4" x14ac:dyDescent="0.3">
@@ -2381,7 +2395,7 @@
         <v>75</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.3">
@@ -2389,7 +2403,7 @@
         <v>76</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.3">
@@ -2397,7 +2411,7 @@
         <v>77</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="131" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2405,7 +2419,7 @@
         <v>78</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.3">
@@ -2413,7 +2427,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.3">
@@ -2421,7 +2435,7 @@
         <v>81</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.3">
@@ -2429,7 +2443,7 @@
         <v>82</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.3">
@@ -2437,7 +2451,7 @@
         <v>79</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.3">
@@ -2445,10 +2459,7 @@
         <v>223</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F136" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="137" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2456,7 +2467,10 @@
         <v>94</v>
       </c>
       <c r="D137" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.3">
@@ -2464,15 +2478,21 @@
         <v>224</v>
       </c>
       <c r="D138" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A139" s="3" t="s">
-        <v>275</v>
+        <v>270</v>
       </c>
       <c r="D139" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.3">
@@ -2480,18 +2500,21 @@
         <v>95</v>
       </c>
       <c r="D140" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A141" s="3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D141" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2499,7 +2522,10 @@
         <v>96</v>
       </c>
       <c r="D142" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F142" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2507,16 +2533,22 @@
         <v>97</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D143" s="5"/>
+      <c r="F143" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A144" s="2" t="s">
         <v>98</v>
       </c>
       <c r="D144" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.3">
@@ -2524,7 +2556,10 @@
         <v>99</v>
       </c>
       <c r="D145" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F145" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.3">
@@ -2532,7 +2567,10 @@
         <v>101</v>
       </c>
       <c r="D146" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F146" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.3">
@@ -2540,32 +2578,44 @@
         <v>100</v>
       </c>
       <c r="D147" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F147" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A148" s="3" t="s">
-        <v>276</v>
+        <v>271</v>
       </c>
       <c r="B148" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D148" s="5"/>
+      <c r="F148" s="5" t="s">
+        <v>280</v>
+      </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A149" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D149" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A150" s="3" t="s">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D150" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
@@ -2573,18 +2623,21 @@
         <v>102</v>
       </c>
       <c r="D151" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A152" s="3" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="D152" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.3">
@@ -2592,7 +2645,10 @@
         <v>103</v>
       </c>
       <c r="D153" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.3">
@@ -2600,7 +2656,7 @@
         <v>93</v>
       </c>
       <c r="B154" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.3">
@@ -2608,7 +2664,7 @@
         <v>105</v>
       </c>
       <c r="B155" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.3">
@@ -2616,7 +2672,7 @@
         <v>106</v>
       </c>
       <c r="B156" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.3">
@@ -2624,7 +2680,7 @@
         <v>107</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.3">
@@ -2632,7 +2688,7 @@
         <v>108</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.3">
@@ -2640,7 +2696,7 @@
         <v>109</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.3">
@@ -2648,7 +2704,7 @@
         <v>110</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.3">
@@ -2656,7 +2712,7 @@
         <v>112</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.3">
@@ -2664,7 +2720,7 @@
         <v>113</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.3">
@@ -2672,7 +2728,7 @@
         <v>114</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.3">
@@ -2680,7 +2736,7 @@
         <v>115</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.3">
@@ -2688,7 +2744,7 @@
         <v>116</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.3">
@@ -2696,7 +2752,7 @@
         <v>111</v>
       </c>
       <c r="B166" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.3">
@@ -2704,7 +2760,7 @@
         <v>225</v>
       </c>
       <c r="B167" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="168" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
@@ -2713,7 +2769,10 @@
       </c>
       <c r="C168" s="10"/>
       <c r="E168" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>286</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.3">
@@ -2721,7 +2780,7 @@
         <v>227</v>
       </c>
       <c r="B169" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.3">
@@ -2729,7 +2788,7 @@
         <v>228</v>
       </c>
       <c r="B170" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.3">
@@ -2737,10 +2796,7 @@
         <v>229</v>
       </c>
       <c r="C171" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F171" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.3">
@@ -2748,7 +2804,7 @@
         <v>117</v>
       </c>
       <c r="B172" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.3">
@@ -2756,7 +2812,7 @@
         <v>126</v>
       </c>
       <c r="B173" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.3">
@@ -2764,7 +2820,7 @@
         <v>127</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.3">
@@ -2772,7 +2828,7 @@
         <v>128</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.3">
@@ -2780,7 +2836,7 @@
         <v>129</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
@@ -2788,7 +2844,7 @@
         <v>132</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
@@ -2796,7 +2852,7 @@
         <v>130</v>
       </c>
       <c r="B178" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
@@ -2804,7 +2860,7 @@
         <v>131</v>
       </c>
       <c r="B179" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
@@ -2812,7 +2868,7 @@
         <v>118</v>
       </c>
       <c r="B180" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
@@ -2820,7 +2876,7 @@
         <v>230</v>
       </c>
       <c r="B181" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
@@ -2828,7 +2884,7 @@
         <v>231</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
@@ -2836,7 +2892,7 @@
         <v>123</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
@@ -2844,7 +2900,7 @@
         <v>232</v>
       </c>
       <c r="B184" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
@@ -2852,7 +2908,7 @@
         <v>119</v>
       </c>
       <c r="B185" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
@@ -2860,7 +2916,7 @@
         <v>124</v>
       </c>
       <c r="B186" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
@@ -2868,7 +2924,7 @@
         <v>125</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
@@ -2876,7 +2932,7 @@
         <v>120</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
@@ -2884,7 +2940,7 @@
         <v>133</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
@@ -2892,7 +2948,7 @@
         <v>139</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
@@ -2900,7 +2956,7 @@
         <v>140</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
@@ -2908,135 +2964,138 @@
         <v>141</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A193" s="2" t="s">
         <v>142</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>143</v>
       </c>
       <c r="B194" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A195" s="2" t="s">
         <v>144</v>
       </c>
       <c r="B195" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A196" s="2" t="s">
         <v>145</v>
       </c>
       <c r="B196" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A197" s="2" t="s">
         <v>134</v>
       </c>
       <c r="B197" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A198" s="2" t="s">
         <v>136</v>
       </c>
       <c r="B198" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A199" s="2" t="s">
         <v>146</v>
       </c>
       <c r="B199" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A200" s="2" t="s">
         <v>147</v>
       </c>
       <c r="B200" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A201" s="2" t="s">
         <v>148</v>
       </c>
       <c r="B201" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A202" s="2" t="s">
         <v>135</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A203" s="2" t="s">
         <v>137</v>
       </c>
       <c r="B203" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A204" s="2" t="s">
         <v>138</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="205" spans="1:4" ht="14.4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A205" s="6" t="s">
         <v>233</v>
       </c>
       <c r="C205" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A206" s="2" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A206" s="3" t="s">
         <v>121</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+      <c r="F206" s="14" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A207" s="1" t="s">
         <v>234</v>
       </c>
       <c r="C207" s="8" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A208" s="1" t="s">
         <v>235</v>
       </c>
       <c r="C208" s="8" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.3">
@@ -3044,7 +3103,7 @@
         <v>122</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.3">
@@ -3052,7 +3111,7 @@
         <v>236</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.3">
@@ -3060,7 +3119,7 @@
         <v>83</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.3">
@@ -3068,7 +3127,7 @@
         <v>84</v>
       </c>
       <c r="B212" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.3">
@@ -3076,7 +3135,7 @@
         <v>85</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.3">
@@ -3084,7 +3143,7 @@
         <v>86</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.3">
@@ -3092,7 +3151,7 @@
         <v>87</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.3">
@@ -3100,7 +3159,7 @@
         <v>90</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.3">
@@ -3108,7 +3167,7 @@
         <v>89</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.3">
@@ -3116,7 +3175,7 @@
         <v>91</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.3">
@@ -3124,7 +3183,7 @@
         <v>92</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.3">
@@ -3132,27 +3191,27 @@
         <v>88</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="221" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A221" s="5" t="s">
-        <v>237</v>
-      </c>
-      <c r="C221" s="10"/>
-      <c r="E221" s="5" t="s">
-        <v>264</v>
+        <v>263</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" s="14" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A221" s="16" t="s">
+        <v>284</v>
+      </c>
+      <c r="C221" s="15"/>
+      <c r="D221" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="F221" s="14" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A222" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="C222" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F222" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.3">
@@ -3160,7 +3219,7 @@
         <v>27</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.3">
@@ -3168,397 +3227,471 @@
         <v>28</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="225" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" s="2" t="s">
         <v>29</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="226" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="227" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" s="2" t="s">
         <v>31</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="228" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="229" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" s="2" t="s">
         <v>33</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="230" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="231" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" s="2" t="s">
         <v>35</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="232" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="C232" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="F232" s="1" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="233" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" s="2" t="s">
         <v>36</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="234" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
         <v>240</v>
       </c>
-      <c r="B234" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="235" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A235" s="1" t="s">
-        <v>241</v>
-      </c>
       <c r="B235" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="236" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" s="2" t="s">
         <v>38</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="237" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="238" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" s="2" t="s">
         <v>37</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="239" spans="1:6" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
         <v>243</v>
       </c>
-      <c r="B239" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="240" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A240" s="1" t="s">
-        <v>244</v>
-      </c>
       <c r="B240" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A241" s="2" t="s">
         <v>39</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.3">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A242" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="D242" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F242" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
         <v>245</v>
       </c>
-      <c r="D242" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A243" s="1" t="s">
+      <c r="D243" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F243" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
         <v>246</v>
       </c>
-      <c r="D243" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A244" s="1" t="s">
+      <c r="D244" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F244" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
         <v>247</v>
       </c>
-      <c r="D244" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A245" s="1" t="s">
+      <c r="D245" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F245" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
         <v>248</v>
       </c>
-      <c r="D245" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A246" s="1" t="s">
+      <c r="D246" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F246" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
         <v>249</v>
       </c>
-      <c r="D246" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A247" s="1" t="s">
+      <c r="D247" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F247" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
         <v>250</v>
       </c>
-      <c r="D247" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A248" s="1" t="s">
+      <c r="D248" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F248" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
         <v>251</v>
       </c>
-      <c r="D248" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A249" s="1" t="s">
-        <v>252</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D249" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F249" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A250" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D250" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D250" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F250" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A251" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="D251" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D251" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F251" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A252" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D252" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F252" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
         <v>253</v>
       </c>
-      <c r="D252" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A253" s="1" t="s">
+      <c r="D253" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F253" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
         <v>254</v>
       </c>
-      <c r="D253" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A254" s="1" t="s">
-        <v>255</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D254" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F254" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A255" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D255" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="D255" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F255" s="14" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A256" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D256" s="1" t="s">
-        <v>264</v>
+      <c r="D256" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F256" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A257" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="D257" s="1" t="s">
-        <v>264</v>
+      <c r="D257" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F257" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A258" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D258" s="1" t="s">
-        <v>264</v>
+      <c r="D258" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F258" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A259" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D259" s="1" t="s">
-        <v>264</v>
+      <c r="D259" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F259" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A260" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="D260" s="1" t="s">
-        <v>264</v>
+      <c r="D260" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F260" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A261" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D261" s="1" t="s">
-        <v>264</v>
+      <c r="D261" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F261" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A262" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D262" s="1" t="s">
-        <v>264</v>
+      <c r="D262" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F262" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A263" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D263" s="1" t="s">
-        <v>264</v>
+      <c r="D263" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F263" s="14" t="s">
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:6" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A264" s="6" t="s">
-        <v>256</v>
-      </c>
-      <c r="C264" s="8" t="s">
-        <v>264</v>
+        <v>255</v>
+      </c>
+      <c r="C264" s="10" t="s">
+        <v>263</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>278</v>
+        <v>273</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A265" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" s="5" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
+      <c r="A266" s="13" t="s">
         <v>257</v>
       </c>
-      <c r="B265" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A266" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="E266" s="1" t="s">
-        <v>264</v>
+      <c r="C266" s="10"/>
+      <c r="E266" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F266" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A267" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A268" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="B267" s="1" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="268" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A268" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="E268" s="1" t="s">
-        <v>264</v>
+      <c r="C268" s="10"/>
+      <c r="E268" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F268" s="5" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A269" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A270" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A271" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A272" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C272" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F272" s="14" t="s">
         <v>282</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>
@@ -3586,8 +3719,11 @@
     <hyperlink ref="A127" r:id="rId18" xr:uid="{793B8F04-31CA-4AC8-9B26-D92281AC29D3}"/>
     <hyperlink ref="A84" r:id="rId19" xr:uid="{2CEDC731-A778-43E9-BF5B-3DAD7B0C19DE}"/>
     <hyperlink ref="A42" r:id="rId20" xr:uid="{432CF538-055E-4D56-BB96-E82AD01427CE}"/>
+    <hyperlink ref="A266" r:id="rId21" xr:uid="{7971DAEF-F9D8-4C8A-86CC-2CAEF9FF8989}"/>
+    <hyperlink ref="A221" r:id="rId22" xr:uid="{D5663E2A-4408-447A-B6FC-3600D74283C6}"/>
+    <hyperlink ref="A206" r:id="rId23" xr:uid="{0DA45158-8ED0-4EE0-88C0-EE84B59EFB23}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId21"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId24"/>
 </worksheet>
 </file>